--- a/templates/community/MAdLand/MAdLand_harvesting.xlsx
+++ b/templates/community/MAdLand/MAdLand_harvesting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\source\repos\SWATE_templates\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\MAdLand\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6D38AF-1AC4-4774-A1B9-8091BCF75287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE58863-F060-4500-AC87-71ECA3067C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="19110" windowHeight="12450" activeTab="1" xr2:uid="{9C05D2FF-8CD7-4E64-AF20-54B006A3A980}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9C05D2FF-8CD7-4E64-AF20-54B006A3A980}"/>
   </bookViews>
   <sheets>
     <sheet name="Harvesting_Isolation" sheetId="1" r:id="rId1"/>
@@ -50,75 +50,75 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{4D43D908-7992-4250-A35F-CAE10BFDE6A0}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The unique identifier of this template. It will be auto generated.
-Reply:
+Antwort:
     id=c89a6b92-9f00-4076-8130-87d802a51669</t>
       </text>
     </comment>
     <comment ref="A2" authorId="1" shapeId="0" xr:uid="{A76215A0-3E59-45A4-B9B1-5A3407629D31}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate template.</t>
       </text>
     </comment>
     <comment ref="A3" authorId="2" shapeId="0" xr:uid="{74C8BD2D-2BE2-4C39-A70B-9013E9621571}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The current version of this template in SemVer notation.</t>
       </text>
     </comment>
     <comment ref="A4" authorId="3" shapeId="0" xr:uid="{62AF9F36-A9BF-41DF-9D17-E3C37789A351}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The description of this template. Use few sentences for succinctness.</t>
       </text>
     </comment>
     <comment ref="A5" authorId="4" shapeId="0" xr:uid="{FF3F90D2-BE16-4BF3-9315-4E5DF7EC9CD1}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
       </text>
     </comment>
     <comment ref="A6" authorId="5" shapeId="0" xr:uid="{22A864D5-B277-4E00-9B71-BC5CA34E0631}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate annotation table in the workbook of the template's excel file.</t>
       </text>
     </comment>
     <comment ref="A7" authorId="6" shapeId="0" xr:uid="{16AEE77B-5C2D-4962-BF72-E06EF1948675}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms: &lt;term ref here&gt;</t>
       </text>
     </comment>
     <comment ref="A11" authorId="7" shapeId="0" xr:uid="{36449FF9-08FB-470C-AD3D-89AC2E5AF224}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all tags associated with this template. Tags are realized as Terms: &lt;term ref here&gt;</t>
       </text>
     </comment>
     <comment ref="A15" authorId="8" shapeId="0" xr:uid="{C3A95BC1-B03D-4CA1-ACE5-7632699DFD29}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The author(s) of this template.</t>
       </text>
     </comment>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>Source Name</t>
   </si>
@@ -135,15 +135,6 @@
     <t>Sample Name</t>
   </si>
   <si>
-    <t>Characteristics [Date]</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:1000153)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:1000153)</t>
-  </si>
-  <si>
     <t>Parameter [sample label]</t>
   </si>
   <si>
@@ -298,13 +289,25 @@
   </si>
   <si>
     <t>Authors Role Term Source REF</t>
+  </si>
+  <si>
+    <t>Characteristic [Date]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Term Source REF (NCIT:C25164)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (NCIT:C25164)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,12 +330,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -450,7 +447,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -482,12 +479,23 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -512,9 +520,9 @@
   <autoFilter ref="A1:T2" xr:uid="{852E5749-6028-4A5D-A5FF-689BD8CD1461}"/>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{323E0B13-24BF-4A47-B0E8-BD20684CA491}" name="Source Name"/>
-    <tableColumn id="3" xr3:uid="{5CC84F6D-A290-4D7D-8E72-161D841E51D6}" name="Characteristics [Date]"/>
-    <tableColumn id="4" xr3:uid="{29CBF9A1-CE6A-4712-9E7E-1144E33F98C1}" name="Term Source REF (NFDI4PSO:1000153)"/>
-    <tableColumn id="5" xr3:uid="{8543A198-8857-428E-8EE8-2C49D087F00A}" name="Term Accession Number (NFDI4PSO:1000153)"/>
+    <tableColumn id="3" xr3:uid="{0F6F70E2-EFA1-4950-A54B-F2B2248A6B5F}" name="Characteristic [Date]" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{E9680C7D-B6DB-49A3-A607-02EA8E9B67C5}" name="Term Source REF (NCIT:C25164)" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{97DCB5DC-A73E-420A-A12E-B880F7F673F5}" name="Term Accession Number (NCIT:C25164)" dataDxfId="0"/>
     <tableColumn id="9" xr3:uid="{7CABB4CE-FA97-410A-80F5-F38ED44BCAA2}" name="Parameter [sample label]"/>
     <tableColumn id="10" xr3:uid="{28A3ADAA-BD2E-4B47-BF8F-356F65073CA1}" name="Term Source REF (MS:1002602)"/>
     <tableColumn id="11" xr3:uid="{FBDDE423-77EB-45FB-A075-33A2C6F6DA8C}" name="Term Accession Number (MS:1002602)"/>
@@ -537,9 +545,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -577,7 +585,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -683,7 +691,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -825,7 +833,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -868,7 +876,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="616" row="3">
+  <wetp:taskpane dockstate="right" visibility="0" width="848" row="1">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
   <wetp:taskpane dockstate="right" visibility="0" width="277" row="4">
@@ -899,96 +907,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2394A163-427A-42A3-B91D-2628D93B98EF}">
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="45.85546875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="37.5703125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.5703125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="39.7109375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="62.140625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="69.140625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="32.7109375" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="39.85546875" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="31.85546875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="37.5546875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.5546875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="39.6640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="62.109375" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="69.109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.6640625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="39.88671875" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.88671875" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="39" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="R1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
         <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" t="s">
-        <v>15</v>
       </c>
       <c r="T1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1003,195 +1020,195 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD2442D-CB7E-4053-9E5A-DDFAE2780749}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B6" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="6" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="6" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="7"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="8"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="7"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="8" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="6"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="7"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="8" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="B24" s="6"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="6"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="10" t="s">
+      <c r="B25" s="6"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="6"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="6"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="6"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="6"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="B24" s="6"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="6"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="6"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="B27" s="9"/>
     </row>

--- a/templates/community/MAdLand/MAdLand_harvesting.xlsx
+++ b/templates/community/MAdLand/MAdLand_harvesting.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\MAdLand\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE58863-F060-4500-AC87-71ECA3067C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84067627-74DE-4D92-BFA0-AB396A9511B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9C05D2FF-8CD7-4E64-AF20-54B006A3A980}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9C05D2FF-8CD7-4E64-AF20-54B006A3A980}"/>
   </bookViews>
   <sheets>
     <sheet name="Harvesting_Isolation" sheetId="1" r:id="rId1"/>
-    <sheet name="SwateTemplateMetadata" sheetId="3" r:id="rId2"/>
+    <sheet name="isa_template" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -909,7 +909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2394A163-427A-42A3-B91D-2628D93B98EF}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD2442D-CB7E-4053-9E5A-DDFAE2780749}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
